--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.204228666666666</v>
+        <v>3.440334666666667</v>
       </c>
       <c r="H2">
-        <v>24.612686</v>
+        <v>10.321004</v>
       </c>
       <c r="I2">
-        <v>0.07326752815431403</v>
+        <v>0.03090290794544385</v>
       </c>
       <c r="J2">
-        <v>0.07326752815431405</v>
+        <v>0.03090290794544386</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N2">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O2">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P2">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q2">
-        <v>254.2622825355822</v>
+        <v>120.5730638824218</v>
       </c>
       <c r="R2">
-        <v>2288.36054282024</v>
+        <v>1085.157574941796</v>
       </c>
       <c r="S2">
-        <v>0.02636987708270958</v>
+        <v>0.01181921855857787</v>
       </c>
       <c r="T2">
-        <v>0.02636987708270957</v>
+        <v>0.01181921855857788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.204228666666666</v>
+        <v>3.440334666666667</v>
       </c>
       <c r="H3">
-        <v>24.612686</v>
+        <v>10.321004</v>
       </c>
       <c r="I3">
-        <v>0.07326752815431403</v>
+        <v>0.03090290794544385</v>
       </c>
       <c r="J3">
-        <v>0.07326752815431405</v>
+        <v>0.03090290794544386</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q3">
-        <v>245.4152990435113</v>
+        <v>102.9116563340253</v>
       </c>
       <c r="R3">
-        <v>2208.737691391602</v>
+        <v>926.204907006228</v>
       </c>
       <c r="S3">
-        <v>0.02545234474204075</v>
+        <v>0.01008795264274966</v>
       </c>
       <c r="T3">
-        <v>0.02545234474204075</v>
+        <v>0.01008795264274966</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.204228666666666</v>
+        <v>3.440334666666667</v>
       </c>
       <c r="H4">
-        <v>24.612686</v>
+        <v>10.321004</v>
       </c>
       <c r="I4">
-        <v>0.07326752815431403</v>
+        <v>0.03090290794544385</v>
       </c>
       <c r="J4">
-        <v>0.07326752815431405</v>
+        <v>0.03090290794544386</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N4">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O4">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P4">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q4">
-        <v>49.66607034705865</v>
+        <v>30.65932563152577</v>
       </c>
       <c r="R4">
-        <v>446.9946331235279</v>
+        <v>275.933930683732</v>
       </c>
       <c r="S4">
-        <v>0.005150933741223935</v>
+        <v>0.003005391576106752</v>
       </c>
       <c r="T4">
-        <v>0.005150933741223935</v>
+        <v>0.003005391576106753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.204228666666666</v>
+        <v>3.440334666666667</v>
       </c>
       <c r="H5">
-        <v>24.612686</v>
+        <v>10.321004</v>
       </c>
       <c r="I5">
-        <v>0.07326752815431403</v>
+        <v>0.03090290794544385</v>
       </c>
       <c r="J5">
-        <v>0.07326752815431405</v>
+        <v>0.03090290794544386</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N5">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q5">
-        <v>157.112767488516</v>
+        <v>61.11015436769111</v>
       </c>
       <c r="R5">
-        <v>1414.014907396644</v>
+        <v>549.99138930922</v>
       </c>
       <c r="S5">
-        <v>0.01629437258833978</v>
+        <v>0.005990345168009561</v>
       </c>
       <c r="T5">
-        <v>0.01629437258833978</v>
+        <v>0.005990345168009562</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>244.546593</v>
       </c>
       <c r="I6">
-        <v>0.7279711116319884</v>
+        <v>0.73221566931385</v>
       </c>
       <c r="J6">
-        <v>0.7279711116319885</v>
+        <v>0.7322156693138502</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N6">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O6">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P6">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q6">
-        <v>2526.297817413346</v>
+        <v>2856.866636232056</v>
       </c>
       <c r="R6">
-        <v>22736.68035672012</v>
+        <v>25711.79972608851</v>
       </c>
       <c r="S6">
-        <v>0.2620056826957207</v>
+        <v>0.2800453938805362</v>
       </c>
       <c r="T6">
-        <v>0.2620056826957206</v>
+        <v>0.2800453938805363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>244.546593</v>
       </c>
       <c r="I7">
-        <v>0.7279711116319884</v>
+        <v>0.73221566931385</v>
       </c>
       <c r="J7">
-        <v>0.7279711116319885</v>
+        <v>0.7322156693138502</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q7">
         <v>2438.396006480839</v>
@@ -883,10 +883,10 @@
         <v>21945.56405832755</v>
       </c>
       <c r="S7">
-        <v>0.2528892698069414</v>
+        <v>0.2390246577881159</v>
       </c>
       <c r="T7">
-        <v>0.2528892698069414</v>
+        <v>0.2390246577881159</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>244.546593</v>
       </c>
       <c r="I8">
-        <v>0.7279711116319884</v>
+        <v>0.73221566931385</v>
       </c>
       <c r="J8">
-        <v>0.7279711116319885</v>
+        <v>0.7322156693138502</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N8">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O8">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P8">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q8">
-        <v>493.4718742631959</v>
+        <v>726.4442128757242</v>
       </c>
       <c r="R8">
-        <v>4441.246868368763</v>
+        <v>6537.997915881519</v>
       </c>
       <c r="S8">
-        <v>0.05117861972419658</v>
+        <v>0.07120995889235257</v>
       </c>
       <c r="T8">
-        <v>0.05117861972419658</v>
+        <v>0.07120995889235258</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>244.546593</v>
       </c>
       <c r="I9">
-        <v>0.7279711116319884</v>
+        <v>0.73221566931385</v>
       </c>
       <c r="J9">
-        <v>0.7279711116319885</v>
+        <v>0.7322156693138502</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N9">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q9">
-        <v>1561.040189035758</v>
+        <v>1447.948285682568</v>
       </c>
       <c r="R9">
-        <v>14049.36170132182</v>
+        <v>13031.53457114312</v>
       </c>
       <c r="S9">
-        <v>0.1618975394051298</v>
+        <v>0.1419356587528453</v>
       </c>
       <c r="T9">
-        <v>0.1618975394051298</v>
+        <v>0.1419356587528453</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.892761</v>
+        <v>25.13705366666667</v>
       </c>
       <c r="H10">
-        <v>59.67828300000001</v>
+        <v>75.41116100000001</v>
       </c>
       <c r="I10">
-        <v>0.1776514875257265</v>
+        <v>0.2257943283853049</v>
       </c>
       <c r="J10">
-        <v>0.1776514875257265</v>
+        <v>0.225794328385305</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N10">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O10">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P10">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q10">
-        <v>616.5087570444134</v>
+        <v>880.9757977712823</v>
       </c>
       <c r="R10">
-        <v>5548.57881339972</v>
+        <v>7928.782179941541</v>
       </c>
       <c r="S10">
-        <v>0.06393893731131811</v>
+        <v>0.08635797385749527</v>
       </c>
       <c r="T10">
-        <v>0.0639389373113181</v>
+        <v>0.08635797385749529</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.892761</v>
+        <v>25.13705366666667</v>
       </c>
       <c r="H11">
-        <v>59.67828300000001</v>
+        <v>75.41116100000001</v>
       </c>
       <c r="I11">
-        <v>0.1776514875257265</v>
+        <v>0.2257943283853049</v>
       </c>
       <c r="J11">
-        <v>0.1776514875257265</v>
+        <v>0.225794328385305</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q11">
-        <v>595.0575109457091</v>
+        <v>751.9314481984364</v>
       </c>
       <c r="R11">
-        <v>5355.517598511382</v>
+        <v>6767.383033785927</v>
       </c>
       <c r="S11">
-        <v>0.0617142002514098</v>
+        <v>0.07370835442974058</v>
       </c>
       <c r="T11">
-        <v>0.06171420025140979</v>
+        <v>0.07370835442974058</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.892761</v>
+        <v>25.13705366666667</v>
       </c>
       <c r="H12">
-        <v>59.67828300000001</v>
+        <v>75.41116100000001</v>
       </c>
       <c r="I12">
-        <v>0.1776514875257265</v>
+        <v>0.2257943283853049</v>
       </c>
       <c r="J12">
-        <v>0.1776514875257265</v>
+        <v>0.225794328385305</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N12">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O12">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P12">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q12">
-        <v>120.425125549876</v>
+        <v>224.0145766197181</v>
       </c>
       <c r="R12">
-        <v>1083.826129948884</v>
+        <v>2016.131189577463</v>
       </c>
       <c r="S12">
-        <v>0.01248944879575561</v>
+        <v>0.02195911056849024</v>
       </c>
       <c r="T12">
-        <v>0.0124894487957556</v>
+        <v>0.02195911056849024</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.892761</v>
+        <v>25.13705366666667</v>
       </c>
       <c r="H13">
-        <v>59.67828300000001</v>
+        <v>75.41116100000001</v>
       </c>
       <c r="I13">
-        <v>0.1776514875257265</v>
+        <v>0.2257943283853049</v>
       </c>
       <c r="J13">
-        <v>0.1776514875257265</v>
+        <v>0.225794328385305</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N13">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q13">
-        <v>380.9507097718981</v>
+        <v>446.5057556180395</v>
       </c>
       <c r="R13">
-        <v>3428.556387947083</v>
+        <v>4018.551800562356</v>
       </c>
       <c r="S13">
-        <v>0.03950890116724296</v>
+        <v>0.04376888952957882</v>
       </c>
       <c r="T13">
-        <v>0.03950890116724295</v>
+        <v>0.04376888952957883</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.363806</v>
+        <v>1.234295333333334</v>
       </c>
       <c r="H14">
-        <v>7.091417999999999</v>
+        <v>3.702886</v>
       </c>
       <c r="I14">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="J14">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N14">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O14">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P14">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q14">
-        <v>73.25816154701333</v>
+        <v>43.25822470636823</v>
       </c>
       <c r="R14">
-        <v>659.3234539231199</v>
+        <v>389.3240223573141</v>
       </c>
       <c r="S14">
-        <v>0.007597700673632865</v>
+        <v>0.00424040325258068</v>
       </c>
       <c r="T14">
-        <v>0.007597700673632863</v>
+        <v>0.00424040325258068</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.363806</v>
+        <v>1.234295333333334</v>
       </c>
       <c r="H15">
-        <v>7.091417999999999</v>
+        <v>3.702886</v>
       </c>
       <c r="I15">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="J15">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q15">
-        <v>70.70916474181399</v>
+        <v>36.92180833144467</v>
       </c>
       <c r="R15">
-        <v>636.3824826763259</v>
+        <v>332.296274983002</v>
       </c>
       <c r="S15">
-        <v>0.007333340848939167</v>
+        <v>0.003619273726616202</v>
       </c>
       <c r="T15">
-        <v>0.007333340848939166</v>
+        <v>0.003619273726616202</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.363806</v>
+        <v>1.234295333333334</v>
       </c>
       <c r="H16">
-        <v>7.091417999999999</v>
+        <v>3.702886</v>
       </c>
       <c r="I16">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="J16">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N16">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O16">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P16">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q16">
-        <v>14.309810203096</v>
+        <v>10.99970387090422</v>
       </c>
       <c r="R16">
-        <v>128.788291827864</v>
+        <v>98.997334838138</v>
       </c>
       <c r="S16">
-        <v>0.001484089312695199</v>
+        <v>0.001078249983401191</v>
       </c>
       <c r="T16">
-        <v>0.001484089312695199</v>
+        <v>0.001078249983401192</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.363806</v>
+        <v>1.234295333333334</v>
       </c>
       <c r="H17">
-        <v>7.091417999999999</v>
+        <v>3.702886</v>
       </c>
       <c r="I17">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="J17">
-        <v>0.02110987268797113</v>
+        <v>0.01108709435540116</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N17">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q17">
-        <v>45.267400209708</v>
+        <v>21.92460491885889</v>
       </c>
       <c r="R17">
-        <v>407.406601887372</v>
+        <v>197.32144426973</v>
       </c>
       <c r="S17">
-        <v>0.0046947418527039</v>
+        <v>0.00214916739280309</v>
       </c>
       <c r="T17">
-        <v>0.004694741852703899</v>
+        <v>0.00214916739280309</v>
       </c>
     </row>
   </sheetData>
